--- a/In Progress/High Stakes Gambling (Game Boy)/achievement_plan.xlsx
+++ b/In Progress/High Stakes Gambling (Game Boy)/achievement_plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D21D2-23FD-40B6-9BF6-45CB754E2E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2AFDC1-7FB8-4FB8-80F6-1D8FE049958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="390" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
+    <workbookView xWindow="-28485" yWindow="765" windowWidth="28485" windowHeight="15435" xr2:uid="{31BE8862-275F-4D32-B8EC-607D115D47ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Keep" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="Testing" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$I$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$G$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keep!$A$1:$J$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Reject!$A$1:$I$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Testing!$A$1:$G$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="291">
   <si>
     <t>Name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Credits</t>
   </si>
   <si>
-    <t>View the Credits (B+Select at Title Screen) *also shown after Game Ending so this seems pointless</t>
-  </si>
-  <si>
     <t>Blackjack Beginner</t>
   </si>
   <si>
@@ -236,30 +233,15 @@
     <t>My Hands Are Bigger/The Biggest</t>
   </si>
   <si>
-    <t>(Blackjack) split, double down both hands, win both *NOT POSSIBLE - game doesn't let you double down after split</t>
-  </si>
-  <si>
-    <t>(Blackjack) use Ace or King cheat and get B.J.? *basically just luck</t>
-  </si>
-  <si>
-    <t>(Blackjack) swap opponent's Blackjack *basically just luck</t>
-  </si>
-  <si>
     <t>[Practice] (Slots) Combined multiplier of 20+?</t>
   </si>
   <si>
     <t>Machine Gun Jammed</t>
   </si>
   <si>
-    <t>(Draw Poker) Machine Gun Max ran out of cash by Round X *isn't cash out usually easier than the alternative - draw poker points?</t>
-  </si>
-  <si>
     <t>(Draw Poker) Suitcase Sam ran out of cash by Round X</t>
   </si>
   <si>
-    <t>win X money at each game type (10K blackjack/slots, 100K video poker?) *better as leaderboard</t>
-  </si>
-  <si>
     <t>Harry Sleeps With the Fishes</t>
   </si>
   <si>
@@ -464,18 +446,12 @@
     <t>[Competitive/Draw Poker] win without losing a single hand *Blackjack can auto-lose to dealer</t>
   </si>
   <si>
-    <t>[Practice/Craps] More complex stuff?</t>
-  </si>
-  <si>
     <t>[Competitive/All Missions] Defeat all five gangsters without using a password</t>
   </si>
   <si>
     <t>[Competitive/Any Mission] Accumulate at least $1 million total end-of-mission winnings (excludes password-loaded winnings)</t>
   </si>
   <si>
-    <t>[Competitive/Any Mission] Complete a mission without buying any cheats from Shady</t>
-  </si>
-  <si>
     <t>[Competitive/All Missions] Defeat all five gangsters without losing any casino games (nor using a password)</t>
   </si>
   <si>
@@ -611,9 +587,6 @@
     <t>Craps Basics - Got the Craps</t>
   </si>
   <si>
-    <t>[Practice/Craps] Win at least 3 different line bets (Pass, Don't Pass, Pass Odds, Don't Pass Odds, Come, Don't Come) *redundant with Basics</t>
-  </si>
-  <si>
     <t>[Practice/Craps] Win at least 3 different multi-roll bets (Place #, Buy #, Lay #, Hard #, Big #)</t>
   </si>
   <si>
@@ -641,12 +614,6 @@
     <t>[Practice/Craps] Win a line, multi-roll, and single-roll bet on the same roll without losing any bets that roll</t>
   </si>
   <si>
-    <t>[Practice/Craps] Roll 10 successive rounds without sevening out? *pure luck</t>
-  </si>
-  <si>
-    <t>[Competitive/Any Mission] Complete a mission while buying out every cheat (from QTY=0 to max) from all Shady visits (twice per casino game)</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -680,9 +647,6 @@
     <t>Close Call</t>
   </si>
   <si>
-    <t>[Competitve/Draw Poker] Win with less remaining cash than the ante amount *having to do it by losing a bunch on purpose then winning last hand = not fun</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
@@ -737,11 +701,6 @@
     <t>[Practice/Video Poker] Win hand with one pair of "Jacks or better" (1x payout) or two pair (2x)</t>
   </si>
   <si>
-    <t>"Cheat Coin 2 Quantity at Shady" gets reset to 1 instead of 0 when you leave Shady during Slots
-(meanwhile, "Cheat Coin 1 Quantity" is 4 until you arrive at Shady during Slots - but maybe can use instead and change check from &gt;0 to not 1-2?)
-fixed? but RATools insists on coding it with multiple ResetIf instead of OrNext, so it may need manual tweaking - or use a PauseLock instead?</t>
-  </si>
-  <si>
     <t>No (retest)</t>
   </si>
   <si>
@@ -760,18 +719,9 @@
     <t>needs to handle "soft" 11</t>
   </si>
   <si>
-    <t>fix to count final spin</t>
-  </si>
-  <si>
-    <t>implement raise detection</t>
-  </si>
-  <si>
     <t>implement player bet/raise detection</t>
   </si>
   <si>
-    <t>triggered when played 2nd joker (opponent had 1 joker as well)</t>
-  </si>
-  <si>
     <t>Working:</t>
   </si>
   <si>
@@ -784,21 +734,12 @@
     <t>Reviewed Logic?</t>
   </si>
   <si>
-    <t>in Comp mode, doesn't trigger until advance to next spin because that's when spin number increases - also doesn't trigger on last spin</t>
-  </si>
-  <si>
     <t>triggers whenever swap card used</t>
   </si>
   <si>
-    <t>Pause triggered b/c BetPayoutAmountBCD was not reset to 0 when slots started</t>
-  </si>
-  <si>
     <t>[Any Mode/Slots] Win all 3 lines at once</t>
   </si>
   <si>
-    <t>count incrementing when cancel swap card - need to add "at Shady" check</t>
-  </si>
-  <si>
     <t>[Competitive/Any Mission] Accumulate at least $1.5 million total end-of-mission winnings (excludes password-loaded winnings)</t>
   </si>
   <si>
@@ -823,9 +764,6 @@
     <t>[Competitive/Blackjack] Have 8 cards in your Blackjack hand (bust allowed on last card)</t>
   </si>
   <si>
-    <t>need to test jackpot</t>
-  </si>
-  <si>
     <t>[Practice/Craps] Win a "Pass" line bet by rolling a "natural" (7 or 11) on the come-out roll</t>
   </si>
   <si>
@@ -853,13 +791,127 @@
     <t>Craps Basics - Rollin', Rollin', Rollin'</t>
   </si>
   <si>
-    <t>test push on 12</t>
-  </si>
-  <si>
     <t>[Practice/Craps] Win a line, multi-roll, and single-roll bet on the same dice roll without losing any bets that roll</t>
   </si>
   <si>
     <t>implement</t>
+  </si>
+  <si>
+    <t>needs reworking b/c strat is just bet everywhere</t>
+  </si>
+  <si>
+    <t>Any Craps (bet not removed on win) not counted, needs reworking b/c strat is just bet everywhere</t>
+  </si>
+  <si>
+    <t>Coded?</t>
+  </si>
+  <si>
+    <t>Vow of Poverty</t>
+  </si>
+  <si>
+    <t>Confidence Building</t>
+  </si>
+  <si>
+    <t>[Competitive/All Missions] Complete the game (no passwords) with every bet being higher than your previous bet</t>
+  </si>
+  <si>
+    <t>Reject Reason</t>
+  </si>
+  <si>
+    <t>View the Credits (B+Select at Title Screen)</t>
+  </si>
+  <si>
+    <t>also shown after Game Ending so seems pointless</t>
+  </si>
+  <si>
+    <t>(Blackjack) split, double down both hands, win both</t>
+  </si>
+  <si>
+    <t>NOT POSSIBLE - game doesn't let you double down after split</t>
+  </si>
+  <si>
+    <t>(Blackjack) use Ace or King cheat and get B.J.?</t>
+  </si>
+  <si>
+    <t>basically just luck</t>
+  </si>
+  <si>
+    <t>(Blackjack) swap opponent's Blackjack</t>
+  </si>
+  <si>
+    <t>(Draw Poker) Machine Gun Max ran out of cash by Round X</t>
+  </si>
+  <si>
+    <t>win X money at each game type (10K blackjack/slots, 100K video poker?)</t>
+  </si>
+  <si>
+    <t>better as leaderboard</t>
+  </si>
+  <si>
+    <t>cash out often easier than DPP</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Win at least 3 different line bets (Pass, Don't Pass, Pass Odds, Don't Pass Odds, Come, Don't Come)</t>
+  </si>
+  <si>
+    <t>redundant with Basics</t>
+  </si>
+  <si>
+    <t>have to lose a bunch on purpose then win last hand (not fun)</t>
+  </si>
+  <si>
+    <t>[Competitive/Draw Poker] Win with less than $10,000 (5K? 1K?) cash remaining</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Roll 10 successive rounds without sevening out?</t>
+  </si>
+  <si>
+    <t>pure luck</t>
+  </si>
+  <si>
+    <t>would be very hard to implement</t>
+  </si>
+  <si>
+    <t>decided to use as Mission 5 challenge instead</t>
+  </si>
+  <si>
+    <t>too simple/freebie</t>
+  </si>
+  <si>
+    <t>[Competitive/Mission 1] Complete Mission 1 without buying any cheats from Shady</t>
+  </si>
+  <si>
+    <t>[Competitive/Mssion 2] Complete Mission 2 while buying out every cheat from Shady (twice per casino game, from 0 to max qty)</t>
+  </si>
+  <si>
+    <t>triggered when played 2nd joker (opponent had 1 joker as well) - unable to reproduce</t>
+  </si>
+  <si>
+    <t>not fully implemented</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Win a "Don't Pass" line bet by rolling "craps" (2 or 3 to win, 12 to push) on the come-out roll</t>
+  </si>
+  <si>
+    <t>[Practice/Craps] Establish a "point number" (4-6 or 8-10) on the come-out roll, then win a "Don't Come" line bet by rolling 2 or 3 (12 to push)</t>
+  </si>
+  <si>
+    <t>add Trigger?</t>
+  </si>
+  <si>
+    <t>RATools codes it with multiple ResetIf instead of OrNext, so it may need manual tweaking - or use a PauseLock instead? (according to Jamiras, I shouldn't be concerned about this being less performant?)</t>
+  </si>
+  <si>
+    <t>Louis the Not-So-Great</t>
+  </si>
+  <si>
+    <t>false trigger when opponent only bet (not raised) then player won hand (b/c "Player's Last Actual Bet Amount" not cleared from previous hand)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Badge</t>
   </si>
 </sst>
 </file>
@@ -937,7 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -951,6 +1003,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1334,11 +1389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,11 +1407,12 @@
     <col min="7" max="7" width="68" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1365,13 +1421,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1380,10 +1436,13 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1391,25 +1450,25 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1417,28 +1476,28 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1446,16 +1505,16 @@
         <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>38</v>
@@ -1464,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1475,51 +1534,54 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1527,16 +1589,16 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -1545,10 +1607,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1556,51 +1618,51 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1608,51 +1670,57 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1660,25 +1728,28 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1686,25 +1757,28 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1712,25 +1786,28 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1738,25 +1815,28 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1764,25 +1844,28 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H16">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1790,25 +1873,28 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1816,25 +1902,28 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1842,25 +1931,28 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1868,16 +1960,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
@@ -1886,10 +1978,13 @@
         <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1897,25 +1992,28 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1923,25 +2021,28 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1949,25 +2050,28 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1975,25 +2079,28 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2001,25 +2108,28 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2027,25 +2137,28 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2053,45 +2166,48 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H27">
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
@@ -2100,10 +2216,13 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2111,28 +2230,31 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2140,25 +2262,28 @@
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H30">
         <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2166,25 +2291,25 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2192,25 +2317,25 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2218,25 +2343,25 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2244,16 +2369,16 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -2262,470 +2387,482 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H35">
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G36" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H36">
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H42">
         <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
       <c r="I43" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" t="s">
         <v>167</v>
       </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H46">
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C47" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H47">
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H48">
         <v>5</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D49" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H49">
         <v>5</v>
       </c>
       <c r="I49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H50">
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2733,54 +2870,60 @@
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G52" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="H52">
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H53">
         <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2788,25 +2931,25 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H54">
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2814,129 +2957,129 @@
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H55">
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H56">
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H57">
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H58">
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H59">
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2944,25 +3087,25 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>279</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H60">
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2970,16 +3113,16 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G61" t="s">
         <v>28</v>
@@ -2988,88 +3131,91 @@
         <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3077,28 +3223,28 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="D65" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3106,25 +3252,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3132,28 +3278,28 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G67" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3161,25 +3307,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3187,25 +3333,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3213,25 +3359,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" t="s">
         <v>111</v>
       </c>
-      <c r="E70" t="s">
-        <v>117</v>
-      </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H70">
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3239,25 +3385,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" t="s">
         <v>111</v>
       </c>
-      <c r="E71" t="s">
-        <v>117</v>
-      </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H71">
         <v>5</v>
       </c>
       <c r="I71" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3265,38 +3411,29 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E72" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H72">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I72" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I72">
-      <sortCondition ref="A2:A72"/>
-      <sortCondition ref="D2:D72"/>
-      <sortCondition ref="F2:F72"/>
-      <sortCondition ref="H2:H72"/>
-      <sortCondition ref="C2:C72"/>
-      <sortCondition ref="B2:B72"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J72" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3305,25 +3442,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="129.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="118.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="77.5703125" customWidth="1"/>
+    <col min="6" max="6" width="57.5703125" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3331,13 +3470,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3345,495 +3484,645 @@
       <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>91</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>118</v>
-      </c>
       <c r="E24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>267</v>
+        <v>116</v>
       </c>
       <c r="G25">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G70" xr:uid="{7279781E-0A72-4F8F-8555-23E2F15EEC5A}"/>
+  <autoFilter ref="A1:I24" xr:uid="{334CAE3C-4AD9-46C5-82BD-40A7611E1FF0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3844,7 +4133,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,22 +4150,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -3888,14 +4177,14 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <f>COUNTIF(Keep!D:D,"="&amp;E3)</f>
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="K3">
         <f>COUNT(Keep!H:H)</f>
@@ -3911,18 +4200,18 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <f>COUNTIF(Keep!D:D,"="&amp;E4)</f>
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="K4">
         <f>SUM(Keep!H:H)</f>
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -3931,17 +4220,17 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Keep!H:H,"="&amp;B5)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F5">
         <f>SUM(H5:H7)</f>
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H5">
         <f>COUNTIF(Keep!D:D,"="&amp;G5)</f>
@@ -3957,18 +4246,18 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H6">
         <f>COUNTIF(Keep!D:D,"="&amp;G6)</f>
         <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="K6">
         <f>COUNTIFS(Testing!C:C,"=Yes",Testing!D:D,"&lt;&gt;Yes")</f>
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -3980,18 +4269,18 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="H7">
         <f>COUNTIF(Keep!D:D,"="&amp;G7)</f>
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="K7">
         <f>COUNTIF(Testing!C:C,"=No") + COUNTIF(Testing!C:C,"=No (retest)") + COUNTIF(Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No",Testing!D:D,"=Yes") - COUNTIFS(Testing!C:C,"=No (retest)",Testing!D:D,"=Yes")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -4000,21 +4289,21 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Keep!H:H,"="&amp;B8)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <f>COUNTIF(Keep!D:D,"="&amp;E8)</f>
         <v>3</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="K8">
         <f>K3-K6-K7</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -4026,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <f>COUNTIF(Keep!D:D,"="&amp;E9)</f>
@@ -4053,15 +4342,15 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <f>COUNTIF(Keep!F:F,"="&amp;E13)</f>
@@ -4070,7 +4359,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <f>COUNTIF(Keep!F:F,"="&amp;E14)</f>
@@ -4079,7 +4368,7 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F15">
         <f>COUNTIF(Keep!F:F,"="&amp;E15)</f>
@@ -4088,7 +4377,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <f>COUNTIF(Keep!F:F,"="&amp;E16)</f>
@@ -4097,7 +4386,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F17">
         <f>COUNTIF(Keep!F:F,"="&amp;E17)</f>
@@ -4106,7 +4395,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F18">
         <f>COUNTIF(Keep!F:F,"="&amp;E18)</f>
@@ -4115,7 +4404,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F19">
         <f>COUNTIF(Keep!F:F,"="&amp;E19)</f>
@@ -4139,13 +4428,13 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="161.7109375" customWidth="1"/>
+    <col min="2" max="2" width="145.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
@@ -4161,24 +4450,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4186,13 +4475,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4200,13 +4489,13 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4214,13 +4503,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4228,27 +4517,27 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,13 +4545,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4270,32 +4559,32 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4303,27 +4592,27 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4331,13 +4620,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4345,13 +4634,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4359,13 +4648,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4373,13 +4662,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,13 +4676,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4401,13 +4690,13 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4415,13 +4704,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4429,13 +4718,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4443,13 +4732,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4457,27 +4746,27 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,13 +4774,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4499,13 +4788,13 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,13 +4802,13 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4527,13 +4816,13 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4541,27 +4830,27 @@
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,13 +4858,13 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,18 +4872,18 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4602,13 +4891,13 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,10 +4905,10 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -4627,10 +4916,10 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4638,356 +4927,332 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
+        <v>90</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" t="s">
-        <v>248</v>
+        <v>90</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>232</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G44" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" t="s">
-        <v>247</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
         <v>167</v>
       </c>
-      <c r="B49" t="s">
-        <v>175</v>
-      </c>
       <c r="C49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>240</v>
+        <v>220</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4995,13 +5260,16 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>233</v>
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" t="s">
+        <v>90</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -5009,115 +5277,154 @@
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>241</v>
+      </c>
+      <c r="C70" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
+        <v>243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>245</v>
+      </c>
+      <c r="C74" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>246</v>
+      </c>
+      <c r="C75" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>190</v>
+      </c>
+      <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>222</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
-        <v>234</v>
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
